--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga10</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H2">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J2">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N2">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O2">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P2">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q2">
-        <v>7.581099189204446</v>
+        <v>0.056623952401</v>
       </c>
       <c r="R2">
-        <v>68.22989270284</v>
+        <v>0.509615571609</v>
       </c>
       <c r="S2">
-        <v>0.1073941479747686</v>
+        <v>0.0006562729609988104</v>
       </c>
       <c r="T2">
-        <v>0.1073941479747686</v>
+        <v>0.0006562729609988104</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H3">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J3">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.504659</v>
       </c>
       <c r="O3">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P3">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q3">
-        <v>41.81946832040223</v>
+        <v>0.1689904092163333</v>
       </c>
       <c r="R3">
-        <v>376.3752148836201</v>
+        <v>1.520913682947</v>
       </c>
       <c r="S3">
-        <v>0.5924162257925454</v>
+        <v>0.00195860287977434</v>
       </c>
       <c r="T3">
-        <v>0.5924162257925455</v>
+        <v>0.00195860287977434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H4">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J4">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N4">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O4">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P4">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q4">
-        <v>17.20110827964222</v>
+        <v>0.1026631173276667</v>
       </c>
       <c r="R4">
-        <v>154.80997451678</v>
+        <v>0.923968055949</v>
       </c>
       <c r="S4">
-        <v>0.2436715734499931</v>
+        <v>0.001189867982313545</v>
       </c>
       <c r="T4">
-        <v>0.2436715734499931</v>
+        <v>0.001189867982313545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>14.75172666666667</v>
+        <v>0.059611</v>
       </c>
       <c r="H5">
-        <v>44.25518</v>
+        <v>0.178833</v>
       </c>
       <c r="I5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="J5">
-        <v>0.9825469030749341</v>
+        <v>0.003943014985542741</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N5">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O5">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P5">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q5">
-        <v>2.757648445128889</v>
+        <v>0.011930187874</v>
       </c>
       <c r="R5">
-        <v>24.81883600616</v>
+        <v>0.107371690866</v>
       </c>
       <c r="S5">
-        <v>0.03906495585762685</v>
+        <v>0.0001382711624560459</v>
       </c>
       <c r="T5">
-        <v>0.03906495585762686</v>
+        <v>0.0001382711624560459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H6">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J6">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N6">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O6">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P6">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q6">
-        <v>0.09914865686733333</v>
+        <v>14.01253239512667</v>
       </c>
       <c r="R6">
-        <v>0.892337911806</v>
+        <v>126.11279155614</v>
       </c>
       <c r="S6">
-        <v>0.001404543755643348</v>
+        <v>0.1624055852003564</v>
       </c>
       <c r="T6">
-        <v>0.001404543755643348</v>
+        <v>0.1624055852003564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H7">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J7">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8.504659</v>
       </c>
       <c r="O7">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P7">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q7">
-        <v>0.5469317854036666</v>
+        <v>41.81946832040223</v>
       </c>
       <c r="R7">
-        <v>4.922386068632999</v>
+        <v>376.3752148836201</v>
       </c>
       <c r="S7">
-        <v>0.007747857088769946</v>
+        <v>0.4846886368451672</v>
       </c>
       <c r="T7">
-        <v>0.007747857088769947</v>
+        <v>0.4846886368451673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H8">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J8">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N8">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O8">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P8">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q8">
-        <v>0.2249629954696667</v>
+        <v>25.40568427917111</v>
       </c>
       <c r="R8">
-        <v>2.024666959227</v>
+        <v>228.65115851254</v>
       </c>
       <c r="S8">
-        <v>0.003186834602918825</v>
+        <v>0.294452487703739</v>
       </c>
       <c r="T8">
-        <v>0.003186834602918826</v>
+        <v>0.2944524877037391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.192929</v>
+        <v>14.75172666666667</v>
       </c>
       <c r="H9">
-        <v>0.5787869999999999</v>
+        <v>44.25518</v>
       </c>
       <c r="I9">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062764</v>
       </c>
       <c r="J9">
-        <v>0.01285014261358855</v>
+        <v>0.9757641930062765</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N9">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O9">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P9">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q9">
-        <v>0.03606563278266666</v>
+        <v>2.952322064706667</v>
       </c>
       <c r="R9">
-        <v>0.324590695044</v>
+        <v>26.57089858236</v>
       </c>
       <c r="S9">
-        <v>0.0005109071662564308</v>
+        <v>0.03421748325701383</v>
       </c>
       <c r="T9">
-        <v>0.0005109071662564308</v>
+        <v>0.03421748325701384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H10">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I10">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J10">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5139126666666667</v>
+        <v>0.949891</v>
       </c>
       <c r="N10">
-        <v>1.541738</v>
+        <v>2.849673</v>
       </c>
       <c r="O10">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="P10">
-        <v>0.1093018029354861</v>
+        <v>0.1664393778377885</v>
       </c>
       <c r="Q10">
-        <v>0.03551530526377777</v>
+        <v>0.291416109999</v>
       </c>
       <c r="R10">
-        <v>0.319637747374</v>
+        <v>2.622744989991</v>
       </c>
       <c r="S10">
-        <v>0.0005031112050741393</v>
+        <v>0.003377519676433276</v>
       </c>
       <c r="T10">
-        <v>0.0005031112050741393</v>
+        <v>0.003377519676433277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H11">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I11">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J11">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.504659</v>
       </c>
       <c r="O11">
-        <v>0.6029393853245545</v>
+        <v>0.4967272219242518</v>
       </c>
       <c r="P11">
-        <v>0.6029393853245546</v>
+        <v>0.4967272219242519</v>
       </c>
       <c r="Q11">
-        <v>0.1959123797618889</v>
+        <v>0.869711943317</v>
       </c>
       <c r="R11">
-        <v>1.763211417857</v>
+        <v>7.827407489853</v>
       </c>
       <c r="S11">
-        <v>0.002775302443239139</v>
+        <v>0.01007998219931036</v>
       </c>
       <c r="T11">
-        <v>0.002775302443239139</v>
+        <v>0.01007998219931036</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H12">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I12">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J12">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.166040333333333</v>
+        <v>1.722217666666667</v>
       </c>
       <c r="N12">
-        <v>3.498121</v>
+        <v>5.166653</v>
       </c>
       <c r="O12">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880268</v>
       </c>
       <c r="P12">
-        <v>0.2479999404480434</v>
+        <v>0.3017660309880269</v>
       </c>
       <c r="Q12">
-        <v>0.08058232667588888</v>
+        <v>0.528357435739</v>
       </c>
       <c r="R12">
-        <v>0.7252409400830001</v>
+        <v>4.755216921651</v>
       </c>
       <c r="S12">
-        <v>0.001141532395131438</v>
+        <v>0.006123675301974303</v>
       </c>
       <c r="T12">
-        <v>0.001141532395131438</v>
+        <v>0.006123675301974304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06910766666666666</v>
+        <v>0.306789</v>
       </c>
       <c r="H13">
-        <v>0.207323</v>
+        <v>0.9203669999999999</v>
       </c>
       <c r="I13">
-        <v>0.004602954311477313</v>
+        <v>0.0202927920081809</v>
       </c>
       <c r="J13">
-        <v>0.004602954311477313</v>
+        <v>0.02029279200818091</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1869373333333333</v>
+        <v>0.200134</v>
       </c>
       <c r="N13">
-        <v>0.560812</v>
+        <v>0.600402</v>
       </c>
       <c r="O13">
-        <v>0.03975887129191588</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="P13">
-        <v>0.03975887129191589</v>
+        <v>0.03506736924993285</v>
       </c>
       <c r="Q13">
-        <v>0.01291880291955555</v>
+        <v>0.061398909726</v>
       </c>
       <c r="R13">
-        <v>0.116269226276</v>
+        <v>0.5525901875339999</v>
       </c>
       <c r="S13">
-        <v>0.0001830082680325958</v>
+        <v>0.000711614830462966</v>
       </c>
       <c r="T13">
-        <v>0.0001830082680325958</v>
+        <v>0.0007116148304629661</v>
       </c>
     </row>
   </sheetData>
